--- a/PVs/parede.xlsx
+++ b/PVs/parede.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.leao\Desktop\Concrete-Instrum-Scripts\PVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68927AB8-67A5-450D-BB10-CA44B8EA68F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E8619-0F97-48CD-9586-6B98356A2740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1455" windowWidth="21600" windowHeight="11400" xr2:uid="{8C664926-5403-41C4-B638-B597EA4F600E}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" xr2:uid="{8C664926-5403-41C4-B638-B597EA4F600E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
   <si>
     <t>Localização</t>
   </si>
@@ -122,37 +122,7 @@
     <t>L2L3</t>
   </si>
   <si>
-    <t>L2L4</t>
-  </si>
-  <si>
-    <t>L2L5</t>
-  </si>
-  <si>
-    <t>L2L6</t>
-  </si>
-  <si>
-    <t>L2L7</t>
-  </si>
-  <si>
-    <t>L2L8</t>
-  </si>
-  <si>
-    <t>L2L9</t>
-  </si>
-  <si>
-    <t>L2L10</t>
-  </si>
-  <si>
     <t>L6P8</t>
-  </si>
-  <si>
-    <t>L6P9</t>
-  </si>
-  <si>
-    <t>L6P10</t>
-  </si>
-  <si>
-    <t>L6P11</t>
   </si>
   <si>
     <t>H_Hx</t>
@@ -189,10 +159,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,7 +522,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>22</v>
@@ -593,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3">
         <v>22</v>
@@ -615,7 +591,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>25</v>
@@ -626,7 +602,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>25</v>
@@ -637,7 +613,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>25</v>
@@ -648,7 +624,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>25</v>
@@ -659,7 +635,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>25</v>
@@ -670,7 +646,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>25</v>
@@ -681,7 +657,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <v>25</v>
@@ -695,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>26</v>
@@ -709,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>26</v>
@@ -720,7 +696,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3">
         <v>26</v>
@@ -731,7 +707,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>26</v>
@@ -742,7 +718,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>26</v>
@@ -753,7 +729,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>26</v>
@@ -795,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3">
         <v>18</v>
@@ -809,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
         <v>18</v>
@@ -837,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
         <v>18</v>
@@ -851,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3">
         <v>18</v>
@@ -949,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3">
         <v>21</v>
@@ -963,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>21</v>
@@ -977,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
         <v>21</v>
@@ -991,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
         <v>21</v>
@@ -1019,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3">
         <v>21</v>
@@ -1033,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>21</v>
@@ -1047,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
         <v>26</v>
@@ -1061,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3">
         <v>26</v>
@@ -1089,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3">
         <v>21</v>
@@ -1103,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
         <v>21</v>
@@ -1117,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3">
         <v>21</v>
@@ -1131,7 +1107,7 @@
         <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C44" s="3">
         <v>21</v>
@@ -1159,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C46" s="3">
         <v>21</v>
@@ -1173,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3">
         <v>21</v>
@@ -1201,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3">
         <v>19</v>
@@ -1215,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C50" s="3">
         <v>19</v>
@@ -1229,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C51" s="3">
         <v>19</v>
@@ -1243,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C52" s="3">
         <v>19</v>
@@ -1257,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C53" s="3">
         <v>19</v>
@@ -1271,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C54" s="3">
         <v>19</v>
@@ -1285,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C55" s="3">
         <v>20</v>
@@ -1299,7 +1275,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C56" s="3">
         <v>20</v>
@@ -1327,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C58" s="3">
         <v>19</v>
@@ -1341,7 +1317,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C59" s="3">
         <v>19</v>
@@ -1355,7 +1331,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C60" s="3">
         <v>19</v>
@@ -1369,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C61" s="3">
         <v>19</v>
@@ -1397,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C63" s="3">
         <v>19</v>
@@ -1411,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C64" s="3">
         <v>18</v>
@@ -1425,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C65" s="3">
         <v>20</v>
@@ -1439,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C66" s="3">
         <v>20</v>
@@ -1491,6 +1467,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PVs/parede.xlsx
+++ b/PVs/parede.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.leao\Desktop\Concrete-Instrum-Scripts\PVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\Iniciação Científica\Instrumentação do concreto\Concrete-Instrum-Scripts\PVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E8619-0F97-48CD-9586-6B98356A2740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750AE97B-CE5E-4CE3-9347-A1AA791D1E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" xr2:uid="{8C664926-5403-41C4-B638-B597EA4F600E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C664926-5403-41C4-B638-B597EA4F600E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>Localização</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>P14</t>
-  </si>
-  <si>
-    <t>L2L3</t>
   </si>
   <si>
     <t>L6P8</t>
@@ -519,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270F984E-E2EF-4600-9BDF-C6DAF7FA9D6F}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <v>22</v>
@@ -569,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>22</v>
@@ -580,24 +577,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,10 +608,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,10 +619,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,10 +630,10 @@
         <v>28</v>
       </c>
       <c r="C8" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,185 +641,203 @@
         <v>28</v>
       </c>
       <c r="C9" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
         <v>22</v>
       </c>
       <c r="D19" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
         <v>8</v>
@@ -824,13 +845,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
         <v>9</v>
@@ -838,86 +859,86 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,10 +946,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2">
         <v>8</v>
@@ -936,226 +957,226 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3">
         <v>21</v>
       </c>
       <c r="D32" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3">
         <v>21</v>
       </c>
       <c r="D33" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3">
         <v>21</v>
       </c>
       <c r="D34" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3">
         <v>21</v>
       </c>
       <c r="D35" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>21</v>
       </c>
       <c r="D36" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3">
         <v>21</v>
       </c>
       <c r="D37" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,32 +1184,32 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>32</v>
@@ -1197,26 +1218,26 @@
         <v>19</v>
       </c>
       <c r="D50" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3">
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>36</v>
@@ -1225,77 +1246,77 @@
         <v>19</v>
       </c>
       <c r="D52" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3">
         <v>19</v>
       </c>
       <c r="D53" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3">
         <v>19</v>
       </c>
       <c r="D54" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C55" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C56" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C57" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,7 +1327,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2">
         <v>11</v>
@@ -1314,155 +1335,43 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C59" s="3">
         <v>19</v>
       </c>
       <c r="D59" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C60" s="3">
         <v>19</v>
       </c>
       <c r="D60" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C61" s="3">
         <v>19</v>
       </c>
       <c r="D61" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="3">
-        <v>19</v>
-      </c>
-      <c r="D62" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="3">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="3">
-        <v>18</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="3">
-        <v>20</v>
-      </c>
-      <c r="D65" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="3">
-        <v>20</v>
-      </c>
-      <c r="D66" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="3">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="3">
-        <v>19</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="3">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2">
         <v>3</v>
       </c>
     </row>
